--- a/test.xlsx
+++ b/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>A1</t>
     <phoneticPr fontId="1"/>
@@ -63,10 +63,15 @@
     <t>C4</t>
   </si>
   <si>
-    <t>C5</t>
-  </si>
-  <si>
     <t>しーと2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cgo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -421,7 +426,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -478,7 +483,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -489,17 +494,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
